--- a/evaluation/results/hybrid/autoencoder/LOF/split_2/test_50_50/evaluation_metrics.xlsx
+++ b/evaluation/results/hybrid/autoencoder/LOF/split_2/test_50_50/evaluation_metrics.xlsx
@@ -500,37 +500,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.5533707865168539</v>
+        <v>0.5945692883895131</v>
       </c>
       <c r="C2">
-        <v>0.7614678899082569</v>
+        <v>0.5524402907580478</v>
       </c>
       <c r="D2">
-        <v>0.1554307116104869</v>
+        <v>0.9962546816479401</v>
       </c>
       <c r="E2">
-        <v>0.2581648522550544</v>
+        <v>0.7107548430193721</v>
       </c>
       <c r="F2">
-        <v>0.1848552338530067</v>
+        <v>0.8583414004517587</v>
       </c>
       <c r="G2">
-        <v>0.160338806746415</v>
+        <v>0.9663941871026339</v>
       </c>
       <c r="H2">
-        <v>0.553370786516854</v>
+        <v>0.7628596277125504</v>
       </c>
       <c r="I2">
-        <v>83</v>
+        <v>532</v>
       </c>
       <c r="J2">
-        <v>26</v>
+        <v>431</v>
       </c>
       <c r="K2">
-        <v>508</v>
+        <v>103</v>
       </c>
       <c r="L2">
-        <v>451</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.529718456725756</v>
+        <v>0.9809523809523809</v>
       </c>
       <c r="C2">
-        <v>0.951310861423221</v>
+        <v>0.1928838951310861</v>
       </c>
       <c r="D2">
-        <v>0.680509042196919</v>
+        <v>0.3223787167449139</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.7614678899082569</v>
+        <v>0.5524402907580478</v>
       </c>
       <c r="C3">
-        <v>0.1554307116104869</v>
+        <v>0.9962546816479401</v>
       </c>
       <c r="D3">
-        <v>0.2581648522550544</v>
+        <v>0.7107548430193721</v>
       </c>
       <c r="E3">
         <v>534</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.5533707865168539</v>
+        <v>0.5945692883895131</v>
       </c>
       <c r="C4">
-        <v>0.5533707865168539</v>
+        <v>0.5945692883895131</v>
       </c>
       <c r="D4">
-        <v>0.5533707865168539</v>
+        <v>0.5945692883895131</v>
       </c>
       <c r="E4">
-        <v>0.5533707865168539</v>
+        <v>0.5945692883895131</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.6455931733170064</v>
+        <v>0.7666963358552144</v>
       </c>
       <c r="C5">
-        <v>0.5533707865168539</v>
+        <v>0.5945692883895131</v>
       </c>
       <c r="D5">
-        <v>0.4693369472259867</v>
+        <v>0.5165667798821429</v>
       </c>
       <c r="E5">
         <v>1068</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.6455931733170065</v>
+        <v>0.7666963358552144</v>
       </c>
       <c r="C6">
-        <v>0.5533707865168539</v>
+        <v>0.5945692883895131</v>
       </c>
       <c r="D6">
-        <v>0.4693369472259867</v>
+        <v>0.5165667798821431</v>
       </c>
       <c r="E6">
         <v>1068</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>508</v>
+        <v>103</v>
       </c>
       <c r="C2">
-        <v>26</v>
+        <v>431</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -682,10 +682,10 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>451</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>83</v>
+        <v>532</v>
       </c>
     </row>
   </sheetData>
